--- a/biology/Médecine/Anthropophobie/Anthropophobie.xlsx
+++ b/biology/Médecine/Anthropophobie/Anthropophobie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’anthropophobie aussi appelée phobie de relations interpersonnelles ou phobie sociale est une crainte pathologique des gens et de la compagnie des gens[1] est une variante de la névrose sociale, qui est un trouble panique. Il se manifeste par le désir d'éviter la société, par la peur des étrangers et est considéré comme une sorte de phobie sociale. Cette déviation s'accompagne de compulsions, qui se retrouvent dans les actions à caractère obsessionnel. De telles opérations motrices acquièrent une forme protectrice pour l'individu. Dans des circonstances similaires, le patient estime que ces actions exigent la procréation, car il pense qu’elles préviendront ou élimineront la phobie. La différence entre la déviation en question et la phobie sociale réside dans la crainte de toute anthropophobie et dans le cas de la phobie sociale dans la crainte de concentrer une foule immense.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’anthropophobie aussi appelée phobie de relations interpersonnelles ou phobie sociale est une crainte pathologique des gens et de la compagnie des gens est une variante de la névrose sociale, qui est un trouble panique. Il se manifeste par le désir d'éviter la société, par la peur des étrangers et est considéré comme une sorte de phobie sociale. Cette déviation s'accompagne de compulsions, qui se retrouvent dans les actions à caractère obsessionnel. De telles opérations motrices acquièrent une forme protectrice pour l'individu. Dans des circonstances similaires, le patient estime que ces actions exigent la procréation, car il pense qu’elles préviendront ou élimineront la phobie. La différence entre la déviation en question et la phobie sociale réside dans la crainte de toute anthropophobie et dans le cas de la phobie sociale dans la crainte de concentrer une foule immense.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Causes de l'anthropophobie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La peur panique ou la phobie s'appelle une peur irrationnelle, aggravée dans certaines circonstances. L'origine de cette peur défie l'explication logique. En règle générale, le sujet de la phobie ne représente pas un danger réel. Cependant, pour un individu, il se transforme en une source d’inquiétude accrue, en raison de laquelle il cherche à minimiser tout contact avec lui. Les raisons de l'émergence de peurs obsessionnelles sont souvent dissimulées dans des situations stressantes ou des troubles émotionnels vécus auparavant.
 L’anthropophobie est considérée comme une forme de peur obsessionnelle. Pour comprendre ce qu'est l'anthropophobie, il faut se référer à l'étymologie du terme analysé. Le concept à l’étude consiste en deux mots grecs anciens «homme» et «peur». Cela signifie la peur des gens. Les individus, tourmentés par l’anthropophobie, ressentent un très fort inconfort psychologique quand une personne s’approche ou lorsque leur espace personnel est violé. Ces personnes ont donc tendance à être plus seules. Au cours de l'interaction de communication avec un étranger, un anthropophobe ne se sent pas bien physiquement.
@@ -552,7 +566,9 @@
           <t>Symptômes de l'anthropophobie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les marqueurs de la présence de l'individu en question sont:- peur de l'environnement social, les anthropophobes ressentent au toucher d'autres sujets une douleur presque physique, ils ont peur de se regarder dans les yeux et d'éviter tout contact;
 - une peur injustifiée, apparaissant à la vue d'étrangers;
@@ -590,7 +606,9 @@
           <t>Anthropophobes célèbres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L’écrivain Jules Renard, célèbre pour son humour acide envers le genre humain, mais aussi le comédien Christopher Lee, célèbre pour avoir incarné Dracula dans les années soixante et qui préférait dormir dans un cercueil pour fuir le contact avec ses congénères. On peut citer aussi le philosophe Sébastien-Roch Nicolas de Chamfort (1741-1794), plus connu sous le nom de Chamfort et qui a développé une œuvre faite de beaucoup d’aphorismes cinglants et d’anthropophobie. Howard Phillips Lovecraft était lui aussi anthropophobe. (1)
 </t>
